--- a/medicine/Médecine vétérinaire/Conjonctivite_du_chat/Conjonctivite_du_chat.xlsx
+++ b/medicine/Médecine vétérinaire/Conjonctivite_du_chat/Conjonctivite_du_chat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La conjonctivite du chat est l'inflammation de la conjonctive, une muqueuse recouvrant le blanc de l'œil et la face postérieure de la paupière du chat. Une simple poussière dans l'œil peut provoquer l'irritation de cette délicate membrane, mais il peut aussi arriver que la conjonctivite soit le signe d'une infection plus grave.
 La plupart du temps, quand un chat souffre d'un seul œil, il s'agit d'une égratignure ou d'une poussière qui irrite sa conjonctive. Néanmoins, une chlamydiose ou une mycoplasmose peuvent également atteindre un œil puis s'étendre à l'autre (après une semaine environ).
